--- a/Code/Results/Cases/Case_5_105/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_105/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.155387939108323</v>
+        <v>2.079490228806947</v>
       </c>
       <c r="C2">
-        <v>0.9595932758720664</v>
+        <v>0.2879520647798586</v>
       </c>
       <c r="D2">
-        <v>0.02883676128233859</v>
+        <v>0.06996198002806508</v>
       </c>
       <c r="E2">
-        <v>0.01606419613068333</v>
+        <v>0.04325744321653202</v>
       </c>
       <c r="F2">
-        <v>1.939450556163578</v>
+        <v>1.816407904982512</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.997711182794049</v>
+        <v>1.289826817062988</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3883017094858445</v>
+        <v>0.27948156601785</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7507113533527416</v>
+        <v>1.540167290790905</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.596839877521177</v>
+        <v>1.941351996942217</v>
       </c>
       <c r="C3">
-        <v>0.8263787652448684</v>
+        <v>0.251536935539491</v>
       </c>
       <c r="D3">
-        <v>0.03048844129006767</v>
+        <v>0.07080730756334042</v>
       </c>
       <c r="E3">
-        <v>0.01619126231900969</v>
+        <v>0.04344196918483956</v>
       </c>
       <c r="F3">
-        <v>1.740563232213219</v>
+        <v>1.780395070784451</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9251310184119035</v>
+        <v>1.28186931948224</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3401442457675472</v>
+        <v>0.2688414106238639</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8018074436608416</v>
+        <v>1.55967806017194</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.259248404859079</v>
+        <v>1.857655497803705</v>
       </c>
       <c r="C4">
-        <v>0.7458113263037092</v>
+        <v>0.2292199559325354</v>
       </c>
       <c r="D4">
-        <v>0.03159334569549976</v>
+        <v>0.07135918046992096</v>
       </c>
       <c r="E4">
-        <v>0.01628203654872862</v>
+        <v>0.04356372321497792</v>
       </c>
       <c r="F4">
-        <v>1.623206331105337</v>
+        <v>1.759561681787233</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8832358181082824</v>
+        <v>1.277813728639636</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3112228090775204</v>
+        <v>0.2624823815995825</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.834824811176901</v>
+        <v>1.57228175958884</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.122837782511908</v>
+        <v>1.823828780032329</v>
       </c>
       <c r="C5">
-        <v>0.7132374555675085</v>
+        <v>0.2201354367018382</v>
       </c>
       <c r="D5">
-        <v>0.03206484843926916</v>
+        <v>0.07159230181207832</v>
       </c>
       <c r="E5">
-        <v>0.01632212318768822</v>
+        <v>0.04361546849076436</v>
       </c>
       <c r="F5">
-        <v>1.576455979683644</v>
+        <v>1.751391497944354</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8667732438525917</v>
+        <v>1.276368864964603</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2995806939542689</v>
+        <v>0.2599345921770606</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8486727417480502</v>
+        <v>1.577574367419842</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.100251842931243</v>
+        <v>1.818228762533977</v>
       </c>
       <c r="C6">
-        <v>0.7078427821204514</v>
+        <v>0.2186275314162742</v>
       </c>
       <c r="D6">
-        <v>0.03214438113586127</v>
+        <v>0.07163150758817771</v>
       </c>
       <c r="E6">
-        <v>0.01632896345202495</v>
+        <v>0.04362418947925795</v>
       </c>
       <c r="F6">
-        <v>1.568754546660458</v>
+        <v>1.750054091567804</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8640748032681529</v>
+        <v>1.276141470115633</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2976556726252682</v>
+        <v>0.2595141591016414</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8509953604982741</v>
+        <v>1.578462640997991</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.257404259451619</v>
+        <v>1.857198166068656</v>
       </c>
       <c r="C7">
-        <v>0.7453710424403255</v>
+        <v>0.2290974000922859</v>
       </c>
       <c r="D7">
-        <v>0.03159962049502063</v>
+        <v>0.07136229114764348</v>
       </c>
       <c r="E7">
-        <v>0.01628256477710743</v>
+        <v>0.04356441244246767</v>
       </c>
       <c r="F7">
-        <v>1.622571648391997</v>
+        <v>1.759450204382034</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8830114049730469</v>
+        <v>1.277793402538606</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3110652421765536</v>
+        <v>0.2624478450875074</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8350100032001251</v>
+        <v>1.572352504460572</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.961570287404072</v>
+        <v>2.031626506242048</v>
       </c>
       <c r="C8">
-        <v>0.9133744100820422</v>
+        <v>0.2753869384102359</v>
       </c>
       <c r="D8">
-        <v>0.02938641993413249</v>
+        <v>0.07024661597103332</v>
       </c>
       <c r="E8">
-        <v>0.01610528989999516</v>
+        <v>0.04331931523094168</v>
       </c>
       <c r="F8">
-        <v>1.869808231118029</v>
+        <v>1.80372411454502</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9720929896493402</v>
+        <v>1.286910138741419</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3715505417915921</v>
+        <v>0.2757765841642907</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7679752150816519</v>
+        <v>1.546764843106917</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.394398912702968</v>
+        <v>2.382666600761866</v>
       </c>
       <c r="C9">
-        <v>1.255116753654988</v>
+        <v>0.3665324717059661</v>
       </c>
       <c r="D9">
-        <v>0.0258471555455273</v>
+        <v>0.06832062168480491</v>
       </c>
       <c r="E9">
-        <v>0.01586464262899012</v>
+        <v>0.04290560281571087</v>
       </c>
       <c r="F9">
-        <v>2.398628141963229</v>
+        <v>1.900785110235091</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.171034368763813</v>
+        <v>1.311423332185981</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4962651025770839</v>
+        <v>0.3033064193138415</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6505846393544985</v>
+        <v>1.501556601929686</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.493682771576403</v>
+        <v>2.64621296596988</v>
       </c>
       <c r="C10">
-        <v>1.517735951838176</v>
+        <v>0.4337833333545404</v>
       </c>
       <c r="D10">
-        <v>0.02386469280758163</v>
+        <v>0.067066973191654</v>
       </c>
       <c r="E10">
-        <v>0.01576247742647396</v>
+        <v>0.04264223187753302</v>
       </c>
       <c r="F10">
-        <v>2.823764315079046</v>
+        <v>1.978480094564105</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.336819978818866</v>
+        <v>1.333547403678693</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5931343556786004</v>
+        <v>0.3243992698671576</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5745126181363034</v>
+        <v>1.471394963443281</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.00778211522362</v>
+        <v>2.767367854810516</v>
       </c>
       <c r="C11">
-        <v>1.640778554911947</v>
+        <v>0.4644530178136961</v>
       </c>
       <c r="D11">
-        <v>0.02313197616063078</v>
+        <v>0.06653208560950929</v>
       </c>
       <c r="E11">
-        <v>0.01573478585035071</v>
+        <v>0.04253118571275438</v>
       </c>
       <c r="F11">
-        <v>3.027678609852444</v>
+        <v>2.015243420357422</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.417765000934892</v>
+        <v>1.34452095919788</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6387365545228931</v>
+        <v>0.3341872422333694</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5425352989468948</v>
+        <v>1.458341714217561</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.204853827632064</v>
+        <v>2.813430589062705</v>
       </c>
       <c r="C12">
-        <v>1.687989985872662</v>
+        <v>0.4760788523372526</v>
       </c>
       <c r="D12">
-        <v>0.02288236478027628</v>
+        <v>0.06633466289549617</v>
       </c>
       <c r="E12">
-        <v>0.01572726384184531</v>
+        <v>0.04249039213728611</v>
       </c>
       <c r="F12">
-        <v>3.106657858981407</v>
+        <v>2.02937126076128</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.449335202695494</v>
+        <v>1.348808300675657</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6562641800103393</v>
+        <v>0.3379216943105092</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5308458205106206</v>
+        <v>1.453495244174846</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.162297886863655</v>
+        <v>2.803501940289948</v>
       </c>
       <c r="C13">
-        <v>1.677792861665239</v>
+        <v>0.473574478696321</v>
       </c>
       <c r="D13">
-        <v>0.02293482165772431</v>
+        <v>0.06637695276752709</v>
       </c>
       <c r="E13">
-        <v>0.01572874731063134</v>
+        <v>0.04249912189430072</v>
       </c>
       <c r="F13">
-        <v>3.089565576117309</v>
+        <v>2.026319363222683</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.442493010247546</v>
+        <v>1.347879060434551</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6524771036117016</v>
+        <v>0.3371161657773172</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5333439650899123</v>
+        <v>1.454534717163703</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.023945007978227</v>
+        <v>2.771153764760925</v>
       </c>
       <c r="C14">
-        <v>1.64464963560539</v>
+        <v>0.4654092391189693</v>
       </c>
       <c r="D14">
-        <v>0.02311085992360518</v>
+        <v>0.06651574054782472</v>
       </c>
       <c r="E14">
-        <v>0.01573410592854074</v>
+        <v>0.04252780442077908</v>
       </c>
       <c r="F14">
-        <v>3.034139425914759</v>
+        <v>2.01640157741474</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.420343131873764</v>
+        <v>1.344871031353065</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6401731326486839</v>
+        <v>0.3344939160824367</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5415649275617582</v>
+        <v>1.457941054859177</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.939523652770959</v>
+        <v>2.75136359403416</v>
       </c>
       <c r="C15">
-        <v>1.624432257215972</v>
+        <v>0.4604093674288947</v>
       </c>
       <c r="D15">
-        <v>0.02322243057626139</v>
+        <v>0.06660142093483401</v>
       </c>
       <c r="E15">
-        <v>0.01573778286743943</v>
+        <v>0.04254553693720098</v>
       </c>
       <c r="F15">
-        <v>3.000426685970922</v>
+        <v>2.010353589485391</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.40689920960628</v>
+        <v>1.34304573765057</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6326715586060203</v>
+        <v>0.332891360931356</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5466564956460331</v>
+        <v>1.460040119857773</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.460398426761969</v>
+        <v>2.638320852910397</v>
       </c>
       <c r="C16">
-        <v>1.509775302896742</v>
+        <v>0.4317806158774147</v>
       </c>
       <c r="D16">
-        <v>0.0239162696775459</v>
+        <v>0.06710264487506379</v>
       </c>
       <c r="E16">
-        <v>0.01576468657293884</v>
+        <v>0.04264966508599599</v>
       </c>
       <c r="F16">
-        <v>2.810670158942997</v>
+        <v>1.97610627978159</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.331651405311419</v>
+        <v>1.332848649618441</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5901881968023588</v>
+        <v>0.3237635018914204</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5766587271714982</v>
+        <v>1.472261500037078</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.170315220147472</v>
+        <v>2.569298471939192</v>
       </c>
       <c r="C17">
-        <v>1.440421950492407</v>
+        <v>0.4142380929308729</v>
       </c>
       <c r="D17">
-        <v>0.02438757022505911</v>
+        <v>0.06741922303091386</v>
       </c>
       <c r="E17">
-        <v>0.01578617535050997</v>
+        <v>0.04271578659201403</v>
       </c>
       <c r="F17">
-        <v>2.697120791747437</v>
+        <v>1.955461817716412</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.286987500988445</v>
+        <v>1.326826749837593</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5645449657889543</v>
+        <v>0.3182133913064007</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5957651099878589</v>
+        <v>1.479930244748978</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.004762167322156</v>
+        <v>2.529717698968682</v>
       </c>
       <c r="C18">
-        <v>1.400861280589481</v>
+        <v>0.4041552884346515</v>
       </c>
       <c r="D18">
-        <v>0.02467432518875512</v>
+        <v>0.06760464051449233</v>
       </c>
       <c r="E18">
-        <v>0.01580028495885077</v>
+        <v>0.04275464287704489</v>
       </c>
       <c r="F18">
-        <v>2.63278335637446</v>
+        <v>1.943721141895679</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.261810037063654</v>
+        <v>1.323448621175913</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5499376467361259</v>
+        <v>0.3150392400649054</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6069991542892765</v>
+        <v>1.484403893059408</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.948920577111949</v>
+        <v>2.516336723212532</v>
       </c>
       <c r="C19">
-        <v>1.387520399434322</v>
+        <v>0.4007426340755842</v>
       </c>
       <c r="D19">
-        <v>0.02477400924300355</v>
+        <v>0.06766799053280792</v>
       </c>
       <c r="E19">
-        <v>0.01580535547559547</v>
+        <v>0.04276794072036738</v>
       </c>
       <c r="F19">
-        <v>2.611159925625117</v>
+        <v>1.93976880691892</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.253369849188289</v>
+        <v>1.322319496233206</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5450151667094616</v>
+        <v>0.3139676326933056</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6108436367028389</v>
+        <v>1.485929361408282</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.201058475034358</v>
+        <v>2.576633684742148</v>
       </c>
       <c r="C20">
-        <v>1.447769923604028</v>
+        <v>0.4161047742753112</v>
       </c>
       <c r="D20">
-        <v>0.02433575336074156</v>
+        <v>0.06738517782971343</v>
       </c>
       <c r="E20">
-        <v>0.01578370497141623</v>
+        <v>0.04270866248730387</v>
       </c>
       <c r="F20">
-        <v>2.709105906290517</v>
+        <v>1.957645625857737</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.291688219771103</v>
+        <v>1.327458933222658</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5672597761854945</v>
+        <v>0.3188023323659763</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5937056089508133</v>
+        <v>1.47910739148827</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.064514378109891</v>
+        <v>2.780650198641695</v>
       </c>
       <c r="C21">
-        <v>1.654366932371431</v>
+        <v>0.4678072385381142</v>
       </c>
       <c r="D21">
-        <v>0.02305836620153912</v>
+        <v>0.06647483575439139</v>
       </c>
       <c r="E21">
-        <v>0.01573244919443084</v>
+        <v>0.04251934556994108</v>
       </c>
       <c r="F21">
-        <v>3.050369464358084</v>
+        <v>2.019309052722832</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.4268231016746</v>
+        <v>1.34575097358119</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6437797448471656</v>
+        <v>0.3352633735926531</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5391384798320615</v>
+        <v>1.456937907273108</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.642999151776223</v>
+        <v>2.915060244948336</v>
       </c>
       <c r="C22">
-        <v>1.793051299177932</v>
+        <v>0.5016674892333981</v>
       </c>
       <c r="D22">
-        <v>0.02238795601049048</v>
+        <v>0.0659097797028565</v>
       </c>
       <c r="E22">
-        <v>0.01571638621421911</v>
+        <v>0.04240294265120736</v>
       </c>
       <c r="F22">
-        <v>3.283814195035092</v>
+        <v>2.060813595457432</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.520563484532204</v>
+        <v>1.358475205469475</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6953218140965873</v>
+        <v>0.3461847018054556</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5059456854774993</v>
+        <v>1.443011669955865</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.332815799467539</v>
+        <v>2.843224206348452</v>
       </c>
       <c r="C23">
-        <v>1.718659382012902</v>
+        <v>0.483588981447383</v>
       </c>
       <c r="D23">
-        <v>0.02272939240594241</v>
+        <v>0.06620861213720985</v>
       </c>
       <c r="E23">
-        <v>0.01572326423227643</v>
+        <v>0.04246439961763215</v>
       </c>
       <c r="F23">
-        <v>3.158175885235551</v>
+        <v>2.038550929903266</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.469990862297422</v>
+        <v>1.351613265308401</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.667658588987436</v>
+        <v>0.3403407786029931</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5234198606888683</v>
+        <v>1.450392688805557</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.187155678272347</v>
+        <v>2.573317120231934</v>
       </c>
       <c r="C24">
-        <v>1.444446942344371</v>
+        <v>0.4152608395239099</v>
       </c>
       <c r="D24">
-        <v>0.02435913081745156</v>
+        <v>0.06740055903885533</v>
       </c>
       <c r="E24">
-        <v>0.01578481638122131</v>
+        <v>0.04271188067164777</v>
       </c>
       <c r="F24">
-        <v>2.703684515214661</v>
+        <v>1.956657927362244</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.289561475218591</v>
+        <v>1.327172861741317</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5660319917407861</v>
+        <v>0.3185360201729708</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5946359352156563</v>
+        <v>1.479479201697913</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.999787553542831</v>
+        <v>2.286722651239074</v>
       </c>
       <c r="C25">
-        <v>1.160963312178239</v>
+        <v>0.3418292674201098</v>
       </c>
       <c r="D25">
-        <v>0.02670662598426787</v>
+        <v>0.06881344343196361</v>
       </c>
       <c r="E25">
-        <v>0.01591740454833035</v>
+        <v>0.04301038084995223</v>
       </c>
       <c r="F25">
-        <v>2.249919547036342</v>
+        <v>1.873416736566327</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.114155018669237</v>
+        <v>1.304074413376455</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4617270282780055</v>
+        <v>0.2957079857955875</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.680683142808526</v>
+        <v>1.51325225136075</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_105/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_105/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.079490228806947</v>
+        <v>4.15538793910838</v>
       </c>
       <c r="C2">
-        <v>0.2879520647798586</v>
+        <v>0.9595932758719243</v>
       </c>
       <c r="D2">
-        <v>0.06996198002806508</v>
+        <v>0.028836761282232</v>
       </c>
       <c r="E2">
-        <v>0.04325744321653202</v>
+        <v>0.01606419613068066</v>
       </c>
       <c r="F2">
-        <v>1.816407904982512</v>
+        <v>1.939450556163621</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.289826817062988</v>
+        <v>0.997711182794049</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.27948156601785</v>
+        <v>0.3883017094858019</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.540167290790905</v>
+        <v>0.7507113533527239</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.941351996942217</v>
+        <v>3.596839877521177</v>
       </c>
       <c r="C3">
-        <v>0.251536935539491</v>
+        <v>0.8263787652448968</v>
       </c>
       <c r="D3">
-        <v>0.07080730756334042</v>
+        <v>0.03048844129003925</v>
       </c>
       <c r="E3">
-        <v>0.04344196918483956</v>
+        <v>0.01619126231902435</v>
       </c>
       <c r="F3">
-        <v>1.780395070784451</v>
+        <v>1.740563232213219</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.28186931948224</v>
+        <v>0.9251310184119106</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2688414106238639</v>
+        <v>0.3401442457675614</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.55967806017194</v>
+        <v>0.8018074436608345</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.857655497803705</v>
+        <v>3.259248404859022</v>
       </c>
       <c r="C4">
-        <v>0.2292199559325354</v>
+        <v>0.7458113263033397</v>
       </c>
       <c r="D4">
-        <v>0.07135918046992096</v>
+        <v>0.03159334569538785</v>
       </c>
       <c r="E4">
-        <v>0.04356372321497792</v>
+        <v>0.01628203654871441</v>
       </c>
       <c r="F4">
-        <v>1.759561681787233</v>
+        <v>1.623206331105322</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.277813728639636</v>
+        <v>0.8832358181082967</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2624823815995825</v>
+        <v>0.3112228090775631</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.57228175958884</v>
+        <v>0.8348248111768619</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.823828780032329</v>
+        <v>3.122837782511965</v>
       </c>
       <c r="C5">
-        <v>0.2201354367018382</v>
+        <v>0.7132374555678211</v>
       </c>
       <c r="D5">
-        <v>0.07159230181207832</v>
+        <v>0.03206484843935442</v>
       </c>
       <c r="E5">
-        <v>0.04361546849076436</v>
+        <v>0.01632212318771153</v>
       </c>
       <c r="F5">
-        <v>1.751391497944354</v>
+        <v>1.576455979683644</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.276368864964603</v>
+        <v>0.8667732438525704</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2599345921770606</v>
+        <v>0.2995806939543542</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.577574367419842</v>
+        <v>0.8486727417480253</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.818228762533977</v>
+        <v>3.100251842931414</v>
       </c>
       <c r="C6">
-        <v>0.2186275314162742</v>
+        <v>0.7078427821207356</v>
       </c>
       <c r="D6">
-        <v>0.07163150758817771</v>
+        <v>0.03214438113575113</v>
       </c>
       <c r="E6">
-        <v>0.04362418947925795</v>
+        <v>0.01632896345202406</v>
       </c>
       <c r="F6">
-        <v>1.750054091567804</v>
+        <v>1.568754546660443</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.276141470115633</v>
+        <v>0.86407480326816</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2595141591016414</v>
+        <v>0.2976556726251971</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.578462640997991</v>
+        <v>0.8509953604983238</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.857198166068656</v>
+        <v>3.257404259451675</v>
       </c>
       <c r="C7">
-        <v>0.2290974000922859</v>
+        <v>0.7453710424404392</v>
       </c>
       <c r="D7">
-        <v>0.07136229114764348</v>
+        <v>0.03159962049512188</v>
       </c>
       <c r="E7">
-        <v>0.04356441244246767</v>
+        <v>0.01628256477710943</v>
       </c>
       <c r="F7">
-        <v>1.759450204382034</v>
+        <v>1.622571648391968</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.277793402538606</v>
+        <v>0.883011404973054</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2624478450875074</v>
+        <v>0.3110652421765252</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.572352504460572</v>
+        <v>0.8350100032001393</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.031626506242048</v>
+        <v>3.961570287404186</v>
       </c>
       <c r="C8">
-        <v>0.2753869384102359</v>
+        <v>0.9133744100822128</v>
       </c>
       <c r="D8">
-        <v>0.07024661597103332</v>
+        <v>0.02938641993423907</v>
       </c>
       <c r="E8">
-        <v>0.04331931523094168</v>
+        <v>0.01610528989999294</v>
       </c>
       <c r="F8">
-        <v>1.80372411454502</v>
+        <v>1.869808231118029</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.286910138741419</v>
+        <v>0.9720929896493473</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2757765841642907</v>
+        <v>0.3715505417915779</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.546764843106917</v>
+        <v>0.7679752150817052</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.382666600761866</v>
+        <v>5.394398912703025</v>
       </c>
       <c r="C9">
-        <v>0.3665324717059661</v>
+        <v>1.255116753654818</v>
       </c>
       <c r="D9">
-        <v>0.06832062168480491</v>
+        <v>0.02584715554542072</v>
       </c>
       <c r="E9">
-        <v>0.04290560281571087</v>
+        <v>0.01586464262899145</v>
       </c>
       <c r="F9">
-        <v>1.900785110235091</v>
+        <v>2.398628141963229</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.311423332185981</v>
+        <v>1.171034368763813</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3033064193138415</v>
+        <v>0.4962651025771265</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.501556601929686</v>
+        <v>0.6505846393545056</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.64621296596988</v>
+        <v>6.493682771576346</v>
       </c>
       <c r="C10">
-        <v>0.4337833333545404</v>
+        <v>1.517735951838119</v>
       </c>
       <c r="D10">
-        <v>0.067066973191654</v>
+        <v>0.02386469280768466</v>
       </c>
       <c r="E10">
-        <v>0.04264223187753302</v>
+        <v>0.01576247742652681</v>
       </c>
       <c r="F10">
-        <v>1.978480094564105</v>
+        <v>2.823764315079075</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.333547403678693</v>
+        <v>1.33681997881888</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3243992698671576</v>
+        <v>0.5931343556785151</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.471394963443281</v>
+        <v>0.5745126181362892</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.767367854810516</v>
+        <v>7.007782115223677</v>
       </c>
       <c r="C11">
-        <v>0.4644530178136961</v>
+        <v>1.640778554911492</v>
       </c>
       <c r="D11">
-        <v>0.06653208560950929</v>
+        <v>0.02313197616063078</v>
       </c>
       <c r="E11">
-        <v>0.04253118571275438</v>
+        <v>0.01573478585031918</v>
       </c>
       <c r="F11">
-        <v>2.015243420357422</v>
+        <v>3.027678609852444</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.34452095919788</v>
+        <v>1.417765000934892</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3341872422333694</v>
+        <v>0.63873655452295</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.458341714217561</v>
+        <v>0.5425352989469516</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.813430589062705</v>
+        <v>7.204853827632121</v>
       </c>
       <c r="C12">
-        <v>0.4760788523372526</v>
+        <v>1.687989985872719</v>
       </c>
       <c r="D12">
-        <v>0.06633466289549617</v>
+        <v>0.02288236478029404</v>
       </c>
       <c r="E12">
-        <v>0.04249039213728611</v>
+        <v>0.01572726384181866</v>
       </c>
       <c r="F12">
-        <v>2.02937126076128</v>
+        <v>3.106657858981379</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.348808300675657</v>
+        <v>1.449335202695494</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3379216943105092</v>
+        <v>0.6562641800104103</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.453495244174846</v>
+        <v>0.5308458205106277</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.803501940289948</v>
+        <v>7.162297886863655</v>
       </c>
       <c r="C13">
-        <v>0.473574478696321</v>
+        <v>1.677792861665182</v>
       </c>
       <c r="D13">
-        <v>0.06637695276752709</v>
+        <v>0.02293482165772076</v>
       </c>
       <c r="E13">
-        <v>0.04249912189430072</v>
+        <v>0.01572874731059759</v>
       </c>
       <c r="F13">
-        <v>2.026319363222683</v>
+        <v>3.089565576117337</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.347879060434551</v>
+        <v>1.442493010247546</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3371161657773172</v>
+        <v>0.6524771036116874</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.454534717163703</v>
+        <v>0.5333439650899052</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.771153764760925</v>
+        <v>7.02394500797817</v>
       </c>
       <c r="C14">
-        <v>0.4654092391189693</v>
+        <v>1.644649635605219</v>
       </c>
       <c r="D14">
-        <v>0.06651574054782472</v>
+        <v>0.02311085992370465</v>
       </c>
       <c r="E14">
-        <v>0.04252780442077908</v>
+        <v>0.0157341059285061</v>
       </c>
       <c r="F14">
-        <v>2.01640157741474</v>
+        <v>3.034139425914759</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.344871031353065</v>
+        <v>1.420343131873778</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3344939160824367</v>
+        <v>0.6401731326485418</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.457941054859177</v>
+        <v>0.5415649275617511</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.75136359403416</v>
+        <v>6.939523652770788</v>
       </c>
       <c r="C15">
-        <v>0.4604093674288947</v>
+        <v>1.624432257215972</v>
       </c>
       <c r="D15">
-        <v>0.06660142093483401</v>
+        <v>0.02322243057636442</v>
       </c>
       <c r="E15">
-        <v>0.04254553693720098</v>
+        <v>0.0157377828674643</v>
       </c>
       <c r="F15">
-        <v>2.010353589485391</v>
+        <v>3.00042668597095</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.34304573765057</v>
+        <v>1.406899209606294</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.332891360931356</v>
+        <v>0.6326715586059919</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.460040119857773</v>
+        <v>0.5466564956459976</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.638320852910397</v>
+        <v>6.460398426761742</v>
       </c>
       <c r="C16">
-        <v>0.4317806158774147</v>
+        <v>1.509775302897083</v>
       </c>
       <c r="D16">
-        <v>0.06710264487506379</v>
+        <v>0.02391626967788696</v>
       </c>
       <c r="E16">
-        <v>0.04264966508599599</v>
+        <v>0.01576468657296992</v>
       </c>
       <c r="F16">
-        <v>1.97610627978159</v>
+        <v>2.810670158942997</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.332848649618441</v>
+        <v>1.331651405311419</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3237635018914204</v>
+        <v>0.5901881968024156</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.472261500037078</v>
+        <v>0.5766587271714911</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.569298471939192</v>
+        <v>6.170315220147586</v>
       </c>
       <c r="C17">
-        <v>0.4142380929308729</v>
+        <v>1.44042195049218</v>
       </c>
       <c r="D17">
-        <v>0.06741922303091386</v>
+        <v>0.02438757022494187</v>
       </c>
       <c r="E17">
-        <v>0.04271578659201403</v>
+        <v>0.01578617535056548</v>
       </c>
       <c r="F17">
-        <v>1.955461817716412</v>
+        <v>2.697120791747437</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.326826749837593</v>
+        <v>1.286987500988431</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3182133913064007</v>
+        <v>0.5645449657889401</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.479930244748978</v>
+        <v>0.5957651099878376</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.529717698968682</v>
+        <v>6.004762167321985</v>
       </c>
       <c r="C18">
-        <v>0.4041552884346515</v>
+        <v>1.400861280589595</v>
       </c>
       <c r="D18">
-        <v>0.06760464051449233</v>
+        <v>0.02467432518874446</v>
       </c>
       <c r="E18">
-        <v>0.04275464287704489</v>
+        <v>0.01580028495890407</v>
       </c>
       <c r="F18">
-        <v>1.943721141895679</v>
+        <v>2.632783356374489</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.323448621175913</v>
+        <v>1.261810037063668</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3150392400649054</v>
+        <v>0.5499376467361401</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.484403893059408</v>
+        <v>0.6069991542892694</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.516336723212532</v>
+        <v>5.948920577111721</v>
       </c>
       <c r="C19">
-        <v>0.4007426340755842</v>
+        <v>1.387520399434322</v>
       </c>
       <c r="D19">
-        <v>0.06766799053280792</v>
+        <v>0.02477400924311368</v>
       </c>
       <c r="E19">
-        <v>0.04276794072036738</v>
+        <v>0.01580535547559103</v>
       </c>
       <c r="F19">
-        <v>1.93976880691892</v>
+        <v>2.611159925625145</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.322319496233206</v>
+        <v>1.253369849188303</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3139676326933056</v>
+        <v>0.5450151667094616</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.485929361408282</v>
+        <v>0.6108436367028887</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.576633684742148</v>
+        <v>6.201058475034642</v>
       </c>
       <c r="C20">
-        <v>0.4161047742753112</v>
+        <v>1.447769923604142</v>
       </c>
       <c r="D20">
-        <v>0.06738517782971343</v>
+        <v>0.0243357533608588</v>
       </c>
       <c r="E20">
-        <v>0.04270866248730387</v>
+        <v>0.01578370497138915</v>
       </c>
       <c r="F20">
-        <v>1.957645625857737</v>
+        <v>2.709105906290517</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.327458933222658</v>
+        <v>1.291688219771103</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3188023323659763</v>
+        <v>0.5672597761854803</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.47910739148827</v>
+        <v>0.5937056089508346</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.780650198641695</v>
+        <v>7.064514378110118</v>
       </c>
       <c r="C21">
-        <v>0.4678072385381142</v>
+        <v>1.654366932371261</v>
       </c>
       <c r="D21">
-        <v>0.06647483575439139</v>
+        <v>0.02305836620164214</v>
       </c>
       <c r="E21">
-        <v>0.04251934556994108</v>
+        <v>0.01573244919439398</v>
       </c>
       <c r="F21">
-        <v>2.019309052722832</v>
+        <v>3.050369464358113</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.34575097358119</v>
+        <v>1.426823101674628</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3352633735926531</v>
+        <v>0.6437797448472793</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.456937907273108</v>
+        <v>0.5391384798320757</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.915060244948336</v>
+        <v>7.642999151776223</v>
       </c>
       <c r="C22">
-        <v>0.5016674892333981</v>
+        <v>1.793051299177819</v>
       </c>
       <c r="D22">
-        <v>0.0659097797028565</v>
+        <v>0.022387956010256</v>
       </c>
       <c r="E22">
-        <v>0.04240294265120736</v>
+        <v>0.01571638621418003</v>
       </c>
       <c r="F22">
-        <v>2.060813595457432</v>
+        <v>3.283814195035092</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.358475205469475</v>
+        <v>1.520563484532218</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3461847018054556</v>
+        <v>0.6953218140968431</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.443011669955865</v>
+        <v>0.505945685477478</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.843224206348452</v>
+        <v>7.332815799467539</v>
       </c>
       <c r="C23">
-        <v>0.483588981447383</v>
+        <v>1.718659382012902</v>
       </c>
       <c r="D23">
-        <v>0.06620861213720985</v>
+        <v>0.0227293924060632</v>
       </c>
       <c r="E23">
-        <v>0.04246439961763215</v>
+        <v>0.01572326423227599</v>
       </c>
       <c r="F23">
-        <v>2.038550929903266</v>
+        <v>3.158175885235522</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.351613265308401</v>
+        <v>1.469990862297422</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3403407786029931</v>
+        <v>0.6676585889874787</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.450392688805557</v>
+        <v>0.5234198606888754</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.573317120231934</v>
+        <v>6.187155678272404</v>
       </c>
       <c r="C24">
-        <v>0.4152608395239099</v>
+        <v>1.4444469423442</v>
       </c>
       <c r="D24">
-        <v>0.06740055903885533</v>
+        <v>0.02435913081742314</v>
       </c>
       <c r="E24">
-        <v>0.04271188067164777</v>
+        <v>0.01578481638118268</v>
       </c>
       <c r="F24">
-        <v>1.956657927362244</v>
+        <v>2.703684515214718</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.327172861741317</v>
+        <v>1.289561475218576</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3185360201729708</v>
+        <v>0.5660319917407577</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.479479201697913</v>
+        <v>0.5946359352156207</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.286722651239074</v>
+        <v>4.999787553542774</v>
       </c>
       <c r="C25">
-        <v>0.3418292674201098</v>
+        <v>1.160963312177955</v>
       </c>
       <c r="D25">
-        <v>0.06881344343196361</v>
+        <v>0.0267066259843709</v>
       </c>
       <c r="E25">
-        <v>0.04301038084995223</v>
+        <v>0.01591740454832813</v>
       </c>
       <c r="F25">
-        <v>1.873416736566327</v>
+        <v>2.249919547036399</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.304074413376455</v>
+        <v>1.114155018669265</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2957079857955875</v>
+        <v>0.4617270282780908</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.51325225136075</v>
+        <v>0.6806831428085189</v>
       </c>
       <c r="O25">
         <v>0</v>
